--- a/Development/Sprint-2/TestCases_Opensource_Backend.xlsx
+++ b/Development/Sprint-2/TestCases_Opensource_Backend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Desktop/p06-Opensource_Backend_In_Rust/Development/Sprint-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D52C2E3-8A05-6F46-9D00-AFF8EB686853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A3F745-9993-2A46-971C-A97C510D38AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="30300" windowHeight="19960" xr2:uid="{1FF78B15-3772-7A43-8FC7-C6B9B422646A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" activeTab="4" xr2:uid="{1FF78B15-3772-7A43-8FC7-C6B9B422646A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="148">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -583,6 +583,23 @@
   </si>
   <si>
     <t>The record disappears from the given collection</t>
+  </si>
+  <si>
+    <t>unexisting record: 
+wrjKmSxOQbniAlp</t>
+  </si>
+  <si>
+    <t>"Record not found"</t>
+  </si>
+  <si>
+    <t>unexisting record:
+testABC</t>
+  </si>
+  <si>
+    <t>"The search id is not 16 characters"</t>
+  </si>
+  <si>
+    <t>Do note for this test, it removes the entry in the database so this is the only test needed to check for deleting a record in a collected.</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1229,9 +1246,112 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1247,194 +1367,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1754,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D29F6-A4F2-F64F-BCC1-8133460C384B}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1858,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F3B91-2CD2-4D1E-913F-0FA3F854241D}">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -1923,41 +1937,41 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="12" t="s">
         <v>2</v>
       </c>
@@ -1981,11 +1995,11 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="54" t="s">
         <v>104</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2003,61 +2017,61 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="69">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="17" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="59" t="s">
         <v>111</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2067,8 +2081,8 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="15"/>
@@ -2078,8 +2092,8 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="15"/>
@@ -2088,11 +2102,11 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="77" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="36"/>
@@ -2134,26 +2148,26 @@
       <c r="B22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
@@ -2167,39 +2181,39 @@
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62">
+      <c r="A25" s="69">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="76" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="28" t="s">
         <v>3</v>
       </c>
@@ -2229,39 +2243,39 @@
       <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62">
+      <c r="A29" s="69">
         <v>2</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="111" t="s">
+      <c r="E29" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="86" t="s">
+      <c r="G29" s="67" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="28" t="s">
         <v>3</v>
       </c>
@@ -2271,13 +2285,13 @@
       <c r="D31" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="60" t="s">
         <v>114</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="56" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2291,39 +2305,39 @@
       <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62">
+      <c r="A33" s="69">
         <v>3</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="28" t="s">
         <v>3</v>
       </c>
@@ -2336,18 +2350,18 @@
       <c r="E35" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="113" t="s">
+      <c r="G35" s="61" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="61"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="37" t="s">
         <v>7</v>
       </c>
@@ -2366,6 +2380,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
@@ -2382,31 +2421,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{C871680C-55CC-0949-BF74-34BC11E421B6}"/>
@@ -2420,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2B79-B54E-4E99-9BCA-2BF9DE54FF12}">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -2485,41 +2499,41 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="12" t="s">
         <v>2</v>
       </c>
@@ -2543,11 +2557,11 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -2565,52 +2579,52 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="69">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="106" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="98" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="54" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -2619,7 +2633,7 @@
       <c r="F14" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="49" t="s">
         <v>67</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2631,10 +2645,10 @@
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="17" t="s">
         <v>63</v>
       </c>
@@ -2644,7 +2658,7 @@
       <c r="F15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="58" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2656,11 +2670,11 @@
       <c r="A16" s="14">
         <v>5</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="98" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="54" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2679,8 +2693,8 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="15"/>
@@ -2690,8 +2704,8 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="15"/>
@@ -2700,11 +2714,11 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="36"/>
@@ -2746,26 +2760,26 @@
       <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
@@ -2779,39 +2793,39 @@
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="69">
         <v>1</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="76" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="79"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="28" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +2841,7 @@
       <c r="F29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G29" s="50" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2841,39 +2855,39 @@
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="62">
+      <c r="A31" s="69">
         <v>2</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="67" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="28" t="s">
         <v>3</v>
       </c>
@@ -2889,7 +2903,7 @@
       <c r="F33" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="56" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2903,39 +2917,39 @@
       <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62">
+      <c r="A35" s="69">
         <v>3</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="86" t="s">
+      <c r="G35" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="88"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="28" t="s">
         <v>3</v>
       </c>
@@ -2965,39 +2979,39 @@
       <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62">
+      <c r="A39" s="69">
         <v>4</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="94" t="s">
+      <c r="G39" s="103" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="161" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="97"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="104"/>
     </row>
     <row r="41" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="28" t="s">
         <v>3</v>
       </c>
@@ -3017,64 +3031,64 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="99" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="102"/>
+    <row r="42" spans="1:7" s="55" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="90"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="92"/>
     </row>
     <row r="43" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92">
+      <c r="A43" s="98">
         <v>5</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="98" t="s">
+      <c r="D43" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="98" t="s">
+      <c r="F43" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="98" t="s">
+      <c r="G43" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="93"/>
-      <c r="B44" s="89" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="91" t="s">
+      <c r="D44" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="91" t="s">
+      <c r="E44" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="91" t="s">
+      <c r="F44" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="91" t="s">
+      <c r="G44" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="61"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="37" t="s">
         <v>7</v>
       </c>
@@ -3093,6 +3107,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="B15:C15"/>
@@ -3109,42 +3159,6 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3154,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E24A11D-2670-8745-9B0E-50EA63D7A54B}">
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3219,41 +3233,41 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="12" t="s">
         <v>2</v>
       </c>
@@ -3277,10 +3291,10 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="15" t="s">
         <v>123</v>
       </c>
@@ -3299,47 +3313,47 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="69">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="15"/>
@@ -3349,8 +3363,8 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="15"/>
@@ -3359,11 +3373,11 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="77" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="36"/>
@@ -3405,26 +3419,26 @@
       <c r="B21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
@@ -3438,33 +3452,37 @@
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62">
+      <c r="A24" s="69">
         <v>1</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="79"/>
+      <c r="E24" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="79"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="28" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3492,12 @@
       <c r="D26" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3488,33 +3510,37 @@
       <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="62">
+      <c r="A28" s="69">
         <v>2</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="86"/>
+      <c r="E28" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="28" t="s">
         <v>3</v>
       </c>
@@ -3524,27 +3550,55 @@
       <c r="D30" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="56"/>
     </row>
     <row r="32" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="61"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="E32" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>8</v>
+      </c>
       <c r="G32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
@@ -3557,27 +3611,7 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3587,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E770132B-FE98-A64A-8AC3-5737DD6996C2}">
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3652,41 +3686,41 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="12" t="s">
         <v>2</v>
       </c>
@@ -3710,11 +3744,11 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="54" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -3732,61 +3766,61 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="69">
         <v>2</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="83" t="s">
         <v>130</v>
       </c>
       <c r="G12" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="81" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="68"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="58" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="58" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -3794,15 +3828,15 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="98" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="54" t="s">
         <v>139</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -3817,12 +3851,14 @@
       <c r="H15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="15"/>
@@ -3832,8 +3868,8 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="15"/>
@@ -3842,11 +3878,11 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="77" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="36"/>
@@ -3888,26 +3924,26 @@
       <c r="B23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
@@ -3921,33 +3957,33 @@
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62">
+      <c r="A26" s="69">
         <v>1</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="55" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="115" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="54"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="28" t="s">
         <v>3</v>
       </c>
@@ -3967,29 +4003,29 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="62">
+      <c r="A30" s="69">
         <v>2</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="73"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="28" t="s">
         <v>3</v>
       </c>
@@ -4009,29 +4045,29 @@
       <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62">
+      <c r="A34" s="69">
         <v>3</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="72"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="110"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="73"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="111"/>
     </row>
     <row r="36" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="28" t="s">
         <v>3</v>
       </c>
@@ -4051,29 +4087,29 @@
       <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="62">
+      <c r="A38" s="69">
         <v>4</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="110"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="73"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="111"/>
     </row>
     <row r="40" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="28" t="s">
         <v>3</v>
       </c>
@@ -4084,10 +4120,10 @@
       <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="61"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
@@ -4096,6 +4132,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
@@ -4112,39 +4181,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
